--- a/Output/Easments/Easments_Cat_parcel_tax.xlsx
+++ b/Output/Easments/Easments_Cat_parcel_tax.xlsx
@@ -1928,118 +1928,118 @@
     <t>122000</t>
   </si>
   <si>
+    <t>124800</t>
+  </si>
+  <si>
+    <t>124600</t>
+  </si>
+  <si>
+    <t>124000</t>
+  </si>
+  <si>
+    <t>125600</t>
+  </si>
+  <si>
+    <t>123400</t>
+  </si>
+  <si>
+    <t>515800</t>
+  </si>
+  <si>
+    <t>122800</t>
+  </si>
+  <si>
+    <t>512600</t>
+  </si>
+  <si>
+    <t>194000</t>
+  </si>
+  <si>
+    <t>193600</t>
+  </si>
+  <si>
+    <t>123200</t>
+  </si>
+  <si>
+    <t>125200</t>
+  </si>
+  <si>
+    <t>512000</t>
+  </si>
+  <si>
     <t>122200</t>
+  </si>
+  <si>
+    <t>515600</t>
+  </si>
+  <si>
+    <t>512800</t>
+  </si>
+  <si>
+    <t>123800</t>
+  </si>
+  <si>
+    <t>125400</t>
   </si>
   <si>
     <t>122400</t>
   </si>
   <si>
-    <t>122800</t>
+    <t>nan</t>
   </si>
   <si>
-    <t>512000</t>
+    <t>514001</t>
   </si>
   <si>
-    <t>123200</t>
+    <t>124601</t>
   </si>
   <si>
-    <t>123400</t>
+    <t>124802</t>
   </si>
   <si>
-    <t>512600</t>
+    <t>125601</t>
   </si>
   <si>
-    <t>123800</t>
+    <t>125202</t>
   </si>
   <si>
-    <t>193600</t>
-  </si>
-  <si>
-    <t>512800</t>
-  </si>
-  <si>
-    <t>124000</t>
-  </si>
-  <si>
-    <t>194000</t>
-  </si>
-  <si>
-    <t>124600</t>
-  </si>
-  <si>
-    <t>124800</t>
-  </si>
-  <si>
-    <t>125200</t>
-  </si>
-  <si>
-    <t>125400</t>
-  </si>
-  <si>
-    <t>125600</t>
-  </si>
-  <si>
-    <t>515600</t>
-  </si>
-  <si>
-    <t>515800</t>
-  </si>
-  <si>
-    <t>nan</t>
+    <t>122801</t>
   </si>
   <si>
     <t>122002</t>
   </si>
   <si>
-    <t>122801</t>
+    <t>122401</t>
   </si>
   <si>
-    <t>34201</t>
+    <t>193601</t>
   </si>
   <si>
-    <t>122401</t>
+    <t>433401</t>
+  </si>
+  <si>
+    <t>484201</t>
   </si>
   <si>
     <t>515602</t>
   </si>
   <si>
+    <t>194601</t>
+  </si>
+  <si>
     <t>123201</t>
   </si>
   <si>
-    <t>433401</t>
+    <t>125201</t>
   </si>
   <si>
-    <t>193601</t>
+    <t>125001</t>
   </si>
   <si>
     <t>510800</t>
   </si>
   <si>
-    <t>124601</t>
-  </si>
-  <si>
-    <t>514001</t>
-  </si>
-  <si>
-    <t>124802</t>
-  </si>
-  <si>
-    <t>125001</t>
-  </si>
-  <si>
-    <t>125202</t>
-  </si>
-  <si>
-    <t>125201</t>
-  </si>
-  <si>
-    <t>484201</t>
-  </si>
-  <si>
-    <t>125601</t>
-  </si>
-  <si>
-    <t>194601</t>
+    <t>34201</t>
   </si>
   <si>
     <t>Locality</t>
@@ -84947,61 +84947,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>5.36</v>
+        <v>21.01</v>
       </c>
       <c r="D3">
-        <v>0.2435889536363637</v>
+        <v>0.3963324075471698</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G3">
-        <v>27404.37</v>
+        <v>77224.27099999999</v>
       </c>
       <c r="H3">
-        <v>93756.5591</v>
+        <v>281122.16</v>
       </c>
       <c r="I3">
-        <v>121666.88617</v>
+        <v>370964.839</v>
       </c>
       <c r="J3">
-        <v>0.0001955892436133361</v>
+        <v>0.0002720647243144581</v>
       </c>
       <c r="K3">
-        <v>5.716933355332577E-05</v>
+        <v>7.473619297745864E-05</v>
       </c>
       <c r="L3">
-        <v>4.405471503980712E-05</v>
+        <v>5.663609536859638E-05</v>
       </c>
       <c r="M3">
-        <v>35.276</v>
+        <v>36.244</v>
       </c>
       <c r="N3">
-        <v>1036525.5</v>
+        <v>4810770.9</v>
       </c>
       <c r="O3">
-        <v>47335</v>
+        <v>178371</v>
       </c>
       <c r="P3">
-        <v>47335</v>
+        <v>178371</v>
       </c>
       <c r="Q3">
-        <v>41871</v>
+        <v>146063</v>
       </c>
       <c r="R3">
-        <v>5464</v>
+        <v>32308</v>
       </c>
       <c r="S3">
-        <v>0.0001132354494560051</v>
+        <v>0.0001177882054818328</v>
       </c>
       <c r="T3">
-        <v>5.171122176926665E-06</v>
+        <v>4.36728342228893E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -85009,61 +85009,61 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>21.01</v>
+        <v>5.36</v>
       </c>
       <c r="D4">
-        <v>0.3963324075471698</v>
+        <v>0.2435889536363637</v>
       </c>
       <c r="E4">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G4">
-        <v>77224.27099999999</v>
+        <v>27404.37</v>
       </c>
       <c r="H4">
-        <v>281122.16</v>
+        <v>93756.5591</v>
       </c>
       <c r="I4">
-        <v>370964.839</v>
+        <v>121666.88617</v>
       </c>
       <c r="J4">
-        <v>0.0002720647243144581</v>
+        <v>0.0001955892436133361</v>
       </c>
       <c r="K4">
-        <v>7.473619297745864E-05</v>
+        <v>5.716933355332577E-05</v>
       </c>
       <c r="L4">
-        <v>5.663609536859638E-05</v>
+        <v>4.405471503980712E-05</v>
       </c>
       <c r="M4">
-        <v>36.244</v>
+        <v>35.276</v>
       </c>
       <c r="N4">
-        <v>4810770.9</v>
+        <v>1036525.5</v>
       </c>
       <c r="O4">
-        <v>178371</v>
+        <v>47335</v>
       </c>
       <c r="P4">
-        <v>178371</v>
+        <v>47335</v>
       </c>
       <c r="Q4">
-        <v>146063</v>
+        <v>41871</v>
       </c>
       <c r="R4">
-        <v>32308</v>
+        <v>5464</v>
       </c>
       <c r="S4">
-        <v>0.0001177882054818328</v>
+        <v>0.0001132354494560051</v>
       </c>
       <c r="T4">
-        <v>4.36728342228893E-06</v>
+        <v>5.171122176926665E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -85246,70 +85246,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>0.67</v>
+        <v>20.46</v>
       </c>
       <c r="D3">
-        <v>0.03927325294117647</v>
+        <v>0.5529181621621622</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="H3" t="s">
         <v>636</v>
       </c>
       <c r="I3">
-        <v>736.901</v>
+        <v>2333.845</v>
       </c>
       <c r="J3">
-        <v>1052.11409</v>
+        <v>2923.18</v>
       </c>
       <c r="K3">
-        <v>1273.38406</v>
+        <v>4200.412</v>
       </c>
       <c r="L3">
-        <v>0.0009092130421861283</v>
+        <v>0.008766649027677504</v>
       </c>
       <c r="M3">
-        <v>0.0006368130665372992</v>
+        <v>0.006999226869368292</v>
       </c>
       <c r="N3">
-        <v>0.0005261570495864382</v>
+        <v>0.004870950754354572</v>
       </c>
       <c r="O3" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="P3">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="Q3">
-        <v>18493.5</v>
+        <v>52220.5</v>
       </c>
       <c r="R3">
-        <v>533</v>
+        <v>2020</v>
       </c>
       <c r="S3">
-        <v>533</v>
+        <v>2020</v>
       </c>
       <c r="T3">
-        <v>475</v>
+        <v>1963</v>
       </c>
       <c r="U3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V3">
-        <v>0.00125703564727955</v>
+        <v>0.01012871287128713</v>
       </c>
       <c r="W3">
-        <v>3.62289453051072E-05</v>
+        <v>0.0003918001551114984</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -85317,70 +85317,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>14.39</v>
       </c>
       <c r="D4">
-        <v>0.002332725</v>
+        <v>0.4963202379310345</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
         <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="H4" t="s">
         <v>637</v>
       </c>
       <c r="I4">
-        <v>2388.149</v>
+        <v>2942.759</v>
       </c>
       <c r="J4">
-        <v>2864.472</v>
+        <v>3461.295</v>
       </c>
       <c r="K4">
-        <v>4076.825</v>
+        <v>4370.221</v>
       </c>
       <c r="L4">
-        <v>4.187343419527007E-06</v>
+        <v>0.004889968903331873</v>
       </c>
       <c r="M4">
-        <v>3.491044771950991E-06</v>
+        <v>0.004157403515158344</v>
       </c>
       <c r="N4">
-        <v>2.452889196862755E-06</v>
+        <v>0.003292739657788474</v>
       </c>
       <c r="O4" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="P4">
-        <v>33.259</v>
+        <v>31.042</v>
       </c>
       <c r="Q4">
-        <v>44621</v>
+        <v>66243.60000000001</v>
       </c>
       <c r="R4">
-        <v>1894</v>
+        <v>3459</v>
       </c>
       <c r="S4">
-        <v>1894</v>
+        <v>3459</v>
       </c>
       <c r="T4">
-        <v>1775</v>
+        <v>3024</v>
       </c>
       <c r="U4">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="V4">
-        <v>5.279831045406547E-06</v>
+        <v>0.00416016189650188</v>
       </c>
       <c r="W4">
-        <v>2.241097241209296E-07</v>
+        <v>0.0002172285322657585</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -85388,70 +85388,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>4.39</v>
+        <v>13.42</v>
       </c>
       <c r="D5">
-        <v>0.1219936483333333</v>
+        <v>0.7894134117647059</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="H5" t="s">
-        <v>638</v>
+        <v>111</v>
       </c>
       <c r="I5">
-        <v>1813.21762</v>
+        <v>4825.029</v>
       </c>
       <c r="J5">
-        <v>2175.30834</v>
+        <v>6113.093</v>
       </c>
       <c r="K5">
-        <v>2556.53665</v>
+        <v>7043.666</v>
       </c>
       <c r="L5">
-        <v>0.00242111037945903</v>
+        <v>0.002781330433454389</v>
       </c>
       <c r="M5">
-        <v>0.002018104706940074</v>
+        <v>0.002195288048128828</v>
       </c>
       <c r="N5">
-        <v>0.001717166855401819</v>
+        <v>0.001905257858620781</v>
       </c>
       <c r="O5" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="P5">
-        <v>11.707</v>
+        <v>31.144</v>
       </c>
       <c r="Q5">
-        <v>77169</v>
+        <v>121187</v>
       </c>
       <c r="R5">
-        <v>4778</v>
+        <v>4297</v>
       </c>
       <c r="S5">
-        <v>4778</v>
+        <v>4297</v>
       </c>
       <c r="T5">
-        <v>4187</v>
+        <v>3844</v>
       </c>
       <c r="U5">
-        <v>591</v>
+        <v>453</v>
       </c>
       <c r="V5">
-        <v>0.0009187944746755964</v>
+        <v>0.003123109145915755</v>
       </c>
       <c r="W5">
-        <v>5.688812865269732E-05</v>
+        <v>0.0001107379504402287</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -85459,70 +85459,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C6">
-        <v>0.97</v>
+        <v>12.67</v>
       </c>
       <c r="D6">
-        <v>0.09672499999999999</v>
+        <v>0.3518318266666667</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I6">
-        <v>1001.455</v>
+        <v>986.523</v>
       </c>
       <c r="J6">
-        <v>1240.183</v>
+        <v>1226.19965</v>
       </c>
       <c r="K6">
-        <v>1585.389</v>
+        <v>1731.64512</v>
       </c>
       <c r="L6">
-        <v>0.0009685907005307277</v>
+        <v>0.0128430862737108</v>
       </c>
       <c r="M6">
-        <v>0.0007821426354013883</v>
+        <v>0.01033273822904777</v>
       </c>
       <c r="N6">
-        <v>0.000611837221022727</v>
+        <v>0.007316741665867426</v>
       </c>
       <c r="O6" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="P6">
-        <v>37.321</v>
+        <v>30.36</v>
       </c>
       <c r="Q6">
-        <v>14300.7</v>
+        <v>31282.4</v>
       </c>
       <c r="R6">
-        <v>480</v>
+        <v>1527</v>
       </c>
       <c r="S6">
-        <v>480</v>
+        <v>1527</v>
       </c>
       <c r="T6">
-        <v>464</v>
+        <v>1399</v>
       </c>
       <c r="U6">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="V6">
-        <v>0.002020833333333333</v>
+        <v>0.008297314996725605</v>
       </c>
       <c r="W6">
-        <v>6.782884753893166E-05</v>
+        <v>0.0004050200751860471</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -85530,70 +85530,70 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>1.3</v>
+        <v>12.17</v>
       </c>
       <c r="D7">
-        <v>0.43485806</v>
+        <v>0.347677308</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="H7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I7">
-        <v>1233.91</v>
+        <v>1291.564</v>
       </c>
       <c r="J7">
-        <v>1364.5259</v>
+        <v>1573.95001</v>
       </c>
       <c r="K7">
-        <v>1877.05483</v>
+        <v>2110.98711</v>
       </c>
       <c r="L7">
-        <v>0.001053561442892918</v>
+        <v>0.009422684435304793</v>
       </c>
       <c r="M7">
-        <v>0.0009527118539853294</v>
+        <v>0.007732138837115926</v>
       </c>
       <c r="N7">
-        <v>0.0006925743346559568</v>
+        <v>0.005765075467466971</v>
       </c>
       <c r="O7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="P7">
-        <v>29.177</v>
+        <v>28.036</v>
       </c>
       <c r="Q7">
-        <v>49088.8</v>
+        <v>82245.10000000001</v>
       </c>
       <c r="R7">
-        <v>2460</v>
+        <v>5135</v>
       </c>
       <c r="S7">
-        <v>2460</v>
+        <v>5135</v>
       </c>
       <c r="T7">
-        <v>2414</v>
+        <v>4961</v>
       </c>
       <c r="U7">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="V7">
-        <v>0.0005284552845528455</v>
+        <v>0.002370009737098345</v>
       </c>
       <c r="W7">
-        <v>2.648261925327162E-05</v>
+        <v>0.0001479723412093851</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -85619,7 +85619,7 @@
         <v>612</v>
       </c>
       <c r="H8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I8">
         <v>913.6155500000001</v>
@@ -85672,70 +85672,70 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>4.11</v>
+        <v>5.82</v>
       </c>
       <c r="D9">
-        <v>0.2742281893333333</v>
+        <v>0.36356509625</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H9" t="s">
-        <v>642</v>
+        <v>113</v>
       </c>
       <c r="I9">
-        <v>1024.24</v>
+        <v>920.159</v>
       </c>
       <c r="J9">
-        <v>1197.19815</v>
+        <v>1042.2644</v>
       </c>
       <c r="K9">
-        <v>1570.99404</v>
+        <v>1597.51539</v>
       </c>
       <c r="L9">
-        <v>0.004012731391080216</v>
+        <v>0.006324993832587629</v>
       </c>
       <c r="M9">
-        <v>0.003433015662444851</v>
+        <v>0.005583995769211728</v>
       </c>
       <c r="N9">
-        <v>0.002616177970987083</v>
+        <v>0.003643157390802977</v>
       </c>
       <c r="O9" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="P9">
-        <v>41.458</v>
+        <v>31.319</v>
       </c>
       <c r="Q9">
-        <v>7283.6</v>
+        <v>43191</v>
       </c>
       <c r="R9">
-        <v>166</v>
+        <v>1883</v>
       </c>
       <c r="S9">
-        <v>166</v>
+        <v>1883</v>
       </c>
       <c r="T9">
-        <v>154</v>
+        <v>1822</v>
       </c>
       <c r="U9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="V9">
-        <v>0.02475903614457832</v>
+        <v>0.003090812533191716</v>
       </c>
       <c r="W9">
-        <v>0.0005642813993080345</v>
+        <v>0.000134750295200389</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -85743,70 +85743,70 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>4.65</v>
       </c>
       <c r="D10">
-        <v>0.1006791</v>
+        <v>0.5170271555555556</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="H10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I10">
-        <v>999.602</v>
+        <v>6392.517</v>
       </c>
       <c r="J10">
-        <v>1194.62132</v>
+        <v>8435.87247</v>
       </c>
       <c r="K10">
-        <v>1405.55097</v>
+        <v>9773.24747</v>
       </c>
       <c r="L10">
-        <v>0.000200079631693414</v>
+        <v>0.0007274130049243515</v>
       </c>
       <c r="M10">
-        <v>0.0001674170690340601</v>
+        <v>0.0005512174367899139</v>
       </c>
       <c r="N10">
-        <v>0.0001422929543423103</v>
+        <v>0.0004757886275031568</v>
       </c>
       <c r="O10" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="P10">
-        <v>25.714</v>
+        <v>30.19</v>
       </c>
       <c r="Q10">
-        <v>23107.6</v>
+        <v>186263</v>
       </c>
       <c r="R10">
-        <v>1498</v>
+        <v>5781</v>
       </c>
       <c r="S10">
-        <v>1498</v>
+        <v>5781</v>
       </c>
       <c r="T10">
-        <v>1396</v>
+        <v>5266</v>
       </c>
       <c r="U10">
-        <v>102</v>
+        <v>515</v>
       </c>
       <c r="V10">
-        <v>0.0001335113484646195</v>
+        <v>0.0008043591074208615</v>
       </c>
       <c r="W10">
-        <v>8.655161072547562E-06</v>
+        <v>2.496470045043836E-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -85814,70 +85814,70 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>2.06</v>
+        <v>4.39</v>
       </c>
       <c r="D11">
-        <v>0.1284436825</v>
+        <v>0.1219936483333333</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H11" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I11">
-        <v>2559.827</v>
+        <v>1813.21762</v>
       </c>
       <c r="J11">
-        <v>3151.901</v>
+        <v>2175.30834</v>
       </c>
       <c r="K11">
-        <v>4280.961</v>
+        <v>2556.53665</v>
       </c>
       <c r="L11">
-        <v>0.0008047418829475585</v>
+        <v>0.00242111037945903</v>
       </c>
       <c r="M11">
-        <v>0.0006535738273505419</v>
+        <v>0.002018104706940074</v>
       </c>
       <c r="N11">
-        <v>0.000481200365992589</v>
+        <v>0.001717166855401819</v>
       </c>
       <c r="O11" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="P11">
-        <v>32.419</v>
+        <v>11.707</v>
       </c>
       <c r="Q11">
-        <v>60847.9</v>
+        <v>77169</v>
       </c>
       <c r="R11">
-        <v>2629</v>
+        <v>4778</v>
       </c>
       <c r="S11">
-        <v>2629</v>
+        <v>4778</v>
       </c>
       <c r="T11">
-        <v>2597</v>
+        <v>4187</v>
       </c>
       <c r="U11">
-        <v>32</v>
+        <v>591</v>
       </c>
       <c r="V11">
-        <v>0.0007835678965386079</v>
+        <v>0.0009187944746755964</v>
       </c>
       <c r="W11">
-        <v>3.385490707156697E-05</v>
+        <v>5.688812865269732E-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -85885,70 +85885,70 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="D12">
-        <v>0.411301</v>
+        <v>0.2742281893333333</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I12">
-        <v>2312.19988</v>
+        <v>1024.24</v>
       </c>
       <c r="J12">
-        <v>3254.5508</v>
+        <v>1197.19815</v>
       </c>
       <c r="K12">
-        <v>4088.32135</v>
+        <v>1570.99404</v>
       </c>
       <c r="L12">
-        <v>0.0001773203102147034</v>
+        <v>0.004012731391080216</v>
       </c>
       <c r="M12">
-        <v>0.0001259774467186071</v>
+        <v>0.003433015662444851</v>
       </c>
       <c r="N12">
-        <v>0.0001002856588071287</v>
+        <v>0.002616177970987083</v>
       </c>
       <c r="O12" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="P12">
-        <v>44.704</v>
+        <v>41.458</v>
       </c>
       <c r="Q12">
-        <v>201567.8</v>
+        <v>7283.6</v>
       </c>
       <c r="R12">
-        <v>6055</v>
+        <v>166</v>
       </c>
       <c r="S12">
-        <v>6055</v>
+        <v>166</v>
       </c>
       <c r="T12">
-        <v>5377</v>
+        <v>154</v>
       </c>
       <c r="U12">
-        <v>678</v>
+        <v>12</v>
       </c>
       <c r="V12">
-        <v>6.771263418662263E-05</v>
+        <v>0.02475903614457832</v>
       </c>
       <c r="W12">
-        <v>2.034055042521673E-06</v>
+        <v>0.0005642813993080345</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -85956,70 +85956,70 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13">
-        <v>12.67</v>
+        <v>2.18</v>
       </c>
       <c r="D13">
-        <v>0.3518318266666667</v>
+        <v>1.087872975</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I13">
-        <v>986.523</v>
+        <v>1258.129</v>
       </c>
       <c r="J13">
-        <v>1226.19965</v>
+        <v>1345.091</v>
       </c>
       <c r="K13">
-        <v>1731.64512</v>
+        <v>1648.829</v>
       </c>
       <c r="L13">
-        <v>0.0128430862737108</v>
+        <v>0.001732731699213674</v>
       </c>
       <c r="M13">
-        <v>0.01033273822904777</v>
+        <v>0.001620708190003502</v>
       </c>
       <c r="N13">
-        <v>0.007316741665867426</v>
+        <v>0.001322150447378109</v>
       </c>
       <c r="O13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P13">
-        <v>30.36</v>
+        <v>40.179</v>
       </c>
       <c r="Q13">
-        <v>31282.4</v>
+        <v>18542.8</v>
       </c>
       <c r="R13">
-        <v>1527</v>
+        <v>661</v>
       </c>
       <c r="S13">
-        <v>1527</v>
+        <v>661</v>
       </c>
       <c r="T13">
-        <v>1399</v>
+        <v>659</v>
       </c>
       <c r="U13">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>0.008297314996725605</v>
+        <v>0.00329803328290469</v>
       </c>
       <c r="W13">
-        <v>0.0004050200751860471</v>
+        <v>0.0001175658476605475</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -86027,70 +86027,70 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="D14">
-        <v>1.087872975</v>
+        <v>0.1284436825</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I14">
-        <v>1258.129</v>
+        <v>2559.827</v>
       </c>
       <c r="J14">
-        <v>1345.091</v>
+        <v>3151.901</v>
       </c>
       <c r="K14">
-        <v>1648.829</v>
+        <v>4280.961</v>
       </c>
       <c r="L14">
-        <v>0.001732731699213674</v>
+        <v>0.0008047418829475585</v>
       </c>
       <c r="M14">
-        <v>0.001620708190003502</v>
+        <v>0.0006535738273505419</v>
       </c>
       <c r="N14">
-        <v>0.001322150447378109</v>
+        <v>0.000481200365992589</v>
       </c>
       <c r="O14" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P14">
-        <v>40.179</v>
+        <v>32.419</v>
       </c>
       <c r="Q14">
-        <v>18542.8</v>
+        <v>60847.9</v>
       </c>
       <c r="R14">
-        <v>661</v>
+        <v>2629</v>
       </c>
       <c r="S14">
-        <v>661</v>
+        <v>2629</v>
       </c>
       <c r="T14">
-        <v>659</v>
+        <v>2597</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="V14">
-        <v>0.00329803328290469</v>
+        <v>0.0007835678965386079</v>
       </c>
       <c r="W14">
-        <v>0.0001175658476605475</v>
+        <v>3.385490707156697E-05</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -86098,70 +86098,70 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>0.35</v>
+        <v>1.45</v>
       </c>
       <c r="D15">
-        <v>0.174347735</v>
+        <v>0.363285</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I15">
-        <v>769.3819999999999</v>
+        <v>710.732</v>
       </c>
       <c r="J15">
-        <v>884.16827</v>
+        <v>1340.004</v>
       </c>
       <c r="K15">
-        <v>1170.48274</v>
+        <v>1467.536</v>
       </c>
       <c r="L15">
-        <v>0.000454910564583003</v>
+        <v>0.002040150155051412</v>
       </c>
       <c r="M15">
-        <v>0.0003958522510652864</v>
+        <v>0.001082086322130382</v>
       </c>
       <c r="N15">
-        <v>0.0002990219232109309</v>
+        <v>0.0009880507190283578</v>
       </c>
       <c r="O15" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="P15">
-        <v>34.18</v>
+        <v>36.484</v>
       </c>
       <c r="Q15">
-        <v>23322.2</v>
+        <v>14056.2</v>
       </c>
       <c r="R15">
-        <v>1192</v>
+        <v>696</v>
       </c>
       <c r="S15">
-        <v>1192</v>
+        <v>696</v>
       </c>
       <c r="T15">
-        <v>1181</v>
+        <v>676</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="V15">
-        <v>0.0002936241610738255</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="W15">
-        <v>1.500716055946694E-05</v>
+        <v>0.0001031573255929768</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -86169,70 +86169,70 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C16">
-        <v>5.82</v>
+        <v>1.3</v>
       </c>
       <c r="D16">
-        <v>0.36356509625</v>
+        <v>0.43485806</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>646</v>
       </c>
       <c r="I16">
-        <v>920.159</v>
+        <v>1233.91</v>
       </c>
       <c r="J16">
-        <v>1042.2644</v>
+        <v>1364.5259</v>
       </c>
       <c r="K16">
-        <v>1597.51539</v>
+        <v>1877.05483</v>
       </c>
       <c r="L16">
-        <v>0.006324993832587629</v>
+        <v>0.001053561442892918</v>
       </c>
       <c r="M16">
-        <v>0.005583995769211728</v>
+        <v>0.0009527118539853294</v>
       </c>
       <c r="N16">
-        <v>0.003643157390802977</v>
+        <v>0.0006925743346559568</v>
       </c>
       <c r="O16" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="P16">
-        <v>31.319</v>
+        <v>29.177</v>
       </c>
       <c r="Q16">
-        <v>43191</v>
+        <v>49088.8</v>
       </c>
       <c r="R16">
-        <v>1883</v>
+        <v>2460</v>
       </c>
       <c r="S16">
-        <v>1883</v>
+        <v>2460</v>
       </c>
       <c r="T16">
-        <v>1822</v>
+        <v>2414</v>
       </c>
       <c r="U16">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="V16">
-        <v>0.003090812533191716</v>
+        <v>0.0005284552845528455</v>
       </c>
       <c r="W16">
-        <v>0.000134750295200389</v>
+        <v>2.648261925327162E-05</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -86240,70 +86240,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>14.39</v>
+        <v>1.14</v>
       </c>
       <c r="D17">
-        <v>0.4963202379310345</v>
+        <v>0.01869435573770492</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
-      </c>
-      <c r="I17">
-        <v>2942.759</v>
-      </c>
-      <c r="J17">
-        <v>3461.295</v>
-      </c>
-      <c r="K17">
-        <v>4370.221</v>
-      </c>
-      <c r="L17">
-        <v>0.004889968903331873</v>
-      </c>
-      <c r="M17">
-        <v>0.004157403515158344</v>
-      </c>
-      <c r="N17">
-        <v>0.003292739657788474</v>
+        <v>647</v>
       </c>
       <c r="O17" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P17">
-        <v>31.042</v>
+        <v>27.697</v>
       </c>
       <c r="Q17">
-        <v>66243.60000000001</v>
+        <v>42089.7</v>
       </c>
       <c r="R17">
-        <v>3459</v>
+        <v>2171</v>
       </c>
       <c r="S17">
-        <v>3459</v>
+        <v>2171</v>
       </c>
       <c r="T17">
-        <v>3024</v>
+        <v>2104</v>
       </c>
       <c r="U17">
-        <v>435</v>
+        <v>67</v>
       </c>
       <c r="V17">
-        <v>0.00416016189650188</v>
+        <v>0.0005251036388760939</v>
       </c>
       <c r="W17">
-        <v>0.0002172285322657585</v>
+        <v>2.708501129730076E-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -86311,70 +86293,70 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C18">
-        <v>13.42</v>
+        <v>0.97</v>
       </c>
       <c r="D18">
-        <v>0.7894134117647059</v>
+        <v>0.09672499999999999</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>648</v>
       </c>
       <c r="I18">
-        <v>4825.029</v>
+        <v>1001.455</v>
       </c>
       <c r="J18">
-        <v>6113.093</v>
+        <v>1240.183</v>
       </c>
       <c r="K18">
-        <v>7043.666</v>
+        <v>1585.389</v>
       </c>
       <c r="L18">
-        <v>0.002781330433454389</v>
+        <v>0.0009685907005307277</v>
       </c>
       <c r="M18">
-        <v>0.002195288048128828</v>
+        <v>0.0007821426354013883</v>
       </c>
       <c r="N18">
-        <v>0.001905257858620781</v>
+        <v>0.000611837221022727</v>
       </c>
       <c r="O18" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="P18">
-        <v>31.144</v>
+        <v>37.321</v>
       </c>
       <c r="Q18">
-        <v>121187</v>
+        <v>14300.7</v>
       </c>
       <c r="R18">
-        <v>4297</v>
+        <v>480</v>
       </c>
       <c r="S18">
-        <v>4297</v>
+        <v>480</v>
       </c>
       <c r="T18">
-        <v>3844</v>
+        <v>464</v>
       </c>
       <c r="U18">
-        <v>453</v>
+        <v>16</v>
       </c>
       <c r="V18">
-        <v>0.003123109145915755</v>
+        <v>0.002020833333333333</v>
       </c>
       <c r="W18">
-        <v>0.0001107379504402287</v>
+        <v>6.782884753893166E-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -86382,70 +86364,70 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C19">
-        <v>1.45</v>
+        <v>0.67</v>
       </c>
       <c r="D19">
-        <v>0.363285</v>
+        <v>0.03927325294117647</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>649</v>
       </c>
       <c r="I19">
-        <v>710.732</v>
+        <v>736.901</v>
       </c>
       <c r="J19">
-        <v>1340.004</v>
+        <v>1052.11409</v>
       </c>
       <c r="K19">
-        <v>1467.536</v>
+        <v>1273.38406</v>
       </c>
       <c r="L19">
-        <v>0.002040150155051412</v>
+        <v>0.0009092130421861283</v>
       </c>
       <c r="M19">
-        <v>0.001082086322130382</v>
+        <v>0.0006368130665372992</v>
       </c>
       <c r="N19">
-        <v>0.0009880507190283578</v>
+        <v>0.0005261570495864382</v>
       </c>
       <c r="O19" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="P19">
-        <v>36.484</v>
+        <v>39</v>
       </c>
       <c r="Q19">
-        <v>14056.2</v>
+        <v>18493.5</v>
       </c>
       <c r="R19">
-        <v>696</v>
+        <v>533</v>
       </c>
       <c r="S19">
-        <v>696</v>
+        <v>533</v>
       </c>
       <c r="T19">
-        <v>676</v>
+        <v>475</v>
       </c>
       <c r="U19">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="V19">
-        <v>0.002083333333333333</v>
+        <v>0.00125703564727955</v>
       </c>
       <c r="W19">
-        <v>0.0001031573255929768</v>
+        <v>3.62289453051072E-05</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -86453,70 +86435,70 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C20">
-        <v>20.46</v>
+        <v>0.46</v>
       </c>
       <c r="D20">
-        <v>0.5529181621621622</v>
+        <v>0.461376</v>
       </c>
       <c r="E20">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H20" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I20">
-        <v>2333.845</v>
+        <v>6872.068</v>
       </c>
       <c r="J20">
-        <v>2923.18</v>
+        <v>18913.748</v>
       </c>
       <c r="K20">
-        <v>4200.412</v>
+        <v>21219.703</v>
       </c>
       <c r="L20">
-        <v>0.008766649027677504</v>
+        <v>6.693763798612004E-05</v>
       </c>
       <c r="M20">
-        <v>0.006999226869368292</v>
+        <v>2.432093311172381E-05</v>
       </c>
       <c r="N20">
-        <v>0.004870950754354572</v>
+        <v>2.167796599226672E-05</v>
       </c>
       <c r="O20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P20">
-        <v>40.5</v>
+        <v>30.598</v>
       </c>
       <c r="Q20">
-        <v>52220.5</v>
+        <v>216684.7</v>
       </c>
       <c r="R20">
-        <v>2020</v>
+        <v>12724</v>
       </c>
       <c r="S20">
-        <v>2020</v>
+        <v>12724</v>
       </c>
       <c r="T20">
-        <v>1963</v>
+        <v>8685</v>
       </c>
       <c r="U20">
-        <v>57</v>
+        <v>4039</v>
       </c>
       <c r="V20">
-        <v>0.01012871287128713</v>
+        <v>3.615215341087708E-05</v>
       </c>
       <c r="W20">
-        <v>0.0003918001551114984</v>
+        <v>2.122900232457575E-06</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -86524,52 +86506,70 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C21">
-        <v>1.14</v>
+        <v>0.41</v>
       </c>
       <c r="D21">
-        <v>0.01869435573770492</v>
+        <v>0.411301</v>
       </c>
       <c r="E21">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="H21" t="s">
-        <v>650</v>
+        <v>651</v>
+      </c>
+      <c r="I21">
+        <v>2312.19988</v>
+      </c>
+      <c r="J21">
+        <v>3254.5508</v>
+      </c>
+      <c r="K21">
+        <v>4088.32135</v>
+      </c>
+      <c r="L21">
+        <v>0.0001773203102147034</v>
+      </c>
+      <c r="M21">
+        <v>0.0001259774467186071</v>
+      </c>
+      <c r="N21">
+        <v>0.0001002856588071287</v>
       </c>
       <c r="O21" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="P21">
-        <v>27.697</v>
+        <v>44.704</v>
       </c>
       <c r="Q21">
-        <v>42089.7</v>
+        <v>201567.8</v>
       </c>
       <c r="R21">
-        <v>2171</v>
+        <v>6055</v>
       </c>
       <c r="S21">
-        <v>2171</v>
+        <v>6055</v>
       </c>
       <c r="T21">
-        <v>2104</v>
+        <v>5377</v>
       </c>
       <c r="U21">
-        <v>67</v>
+        <v>678</v>
       </c>
       <c r="V21">
-        <v>0.0005251036388760939</v>
+        <v>6.771263418662263E-05</v>
       </c>
       <c r="W21">
-        <v>2.708501129730076E-05</v>
+        <v>2.034055042521673E-06</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -86577,70 +86577,70 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
       <c r="D22">
-        <v>0.008920545714285716</v>
+        <v>0.174347735</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="H22" t="s">
-        <v>651</v>
+        <v>114</v>
       </c>
       <c r="I22">
-        <v>1026.491</v>
+        <v>769.3819999999999</v>
       </c>
       <c r="J22">
-        <v>1297.29272</v>
+        <v>884.16827</v>
       </c>
       <c r="K22">
-        <v>1614.01447</v>
+        <v>1170.48274</v>
       </c>
       <c r="L22">
-        <v>5.845155973116179E-05</v>
+        <v>0.000454910564583003</v>
       </c>
       <c r="M22">
-        <v>4.625016318599244E-05</v>
+        <v>0.0003958522510652864</v>
       </c>
       <c r="N22">
-        <v>3.717438790991756E-05</v>
+        <v>0.0002990219232109309</v>
       </c>
       <c r="O22" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="P22">
-        <v>36.598</v>
+        <v>34.18</v>
       </c>
       <c r="Q22">
-        <v>26169.8</v>
+        <v>23322.2</v>
       </c>
       <c r="R22">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="S22">
-        <v>1214</v>
+        <v>1192</v>
       </c>
       <c r="T22">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="U22">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V22">
-        <v>4.942339373970346E-05</v>
+        <v>0.0002936241610738255</v>
       </c>
       <c r="W22">
-        <v>2.292719088414891E-06</v>
+        <v>1.500716055946694E-05</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -86648,70 +86648,70 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C23">
-        <v>12.17</v>
+        <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.347677308</v>
+        <v>0.1006791</v>
       </c>
       <c r="E23">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="H23" t="s">
         <v>652</v>
       </c>
       <c r="I23">
-        <v>1291.564</v>
+        <v>999.602</v>
       </c>
       <c r="J23">
-        <v>1573.95001</v>
+        <v>1194.62132</v>
       </c>
       <c r="K23">
-        <v>2110.98711</v>
+        <v>1405.55097</v>
       </c>
       <c r="L23">
-        <v>0.009422684435304793</v>
+        <v>0.000200079631693414</v>
       </c>
       <c r="M23">
-        <v>0.007732138837115926</v>
+        <v>0.0001674170690340601</v>
       </c>
       <c r="N23">
-        <v>0.005765075467466971</v>
+        <v>0.0001422929543423103</v>
       </c>
       <c r="O23" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="P23">
-        <v>28.036</v>
+        <v>25.714</v>
       </c>
       <c r="Q23">
-        <v>82245.10000000001</v>
+        <v>23107.6</v>
       </c>
       <c r="R23">
-        <v>5135</v>
+        <v>1498</v>
       </c>
       <c r="S23">
-        <v>5135</v>
+        <v>1498</v>
       </c>
       <c r="T23">
-        <v>4961</v>
+        <v>1396</v>
       </c>
       <c r="U23">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="V23">
-        <v>0.002370009737098345</v>
+        <v>0.0001335113484646195</v>
       </c>
       <c r="W23">
-        <v>0.0001479723412093851</v>
+        <v>8.655161072547562E-06</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -86719,70 +86719,70 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24">
-        <v>0.46</v>
+        <v>0.06</v>
       </c>
       <c r="D24">
-        <v>0.461376</v>
+        <v>0.008920545714285716</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H24" t="s">
         <v>653</v>
       </c>
       <c r="I24">
-        <v>6872.068</v>
+        <v>1026.491</v>
       </c>
       <c r="J24">
-        <v>18913.748</v>
+        <v>1297.29272</v>
       </c>
       <c r="K24">
-        <v>21219.703</v>
+        <v>1614.01447</v>
       </c>
       <c r="L24">
-        <v>6.693763798612004E-05</v>
+        <v>5.845155973116179E-05</v>
       </c>
       <c r="M24">
-        <v>2.432093311172381E-05</v>
+        <v>4.625016318599244E-05</v>
       </c>
       <c r="N24">
-        <v>2.167796599226672E-05</v>
+        <v>3.717438790991756E-05</v>
       </c>
       <c r="O24" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P24">
-        <v>30.598</v>
+        <v>36.598</v>
       </c>
       <c r="Q24">
-        <v>216684.7</v>
+        <v>26169.8</v>
       </c>
       <c r="R24">
-        <v>12724</v>
+        <v>1214</v>
       </c>
       <c r="S24">
-        <v>12724</v>
+        <v>1214</v>
       </c>
       <c r="T24">
-        <v>8685</v>
+        <v>1174</v>
       </c>
       <c r="U24">
-        <v>4039</v>
+        <v>40</v>
       </c>
       <c r="V24">
-        <v>3.615215341087708E-05</v>
+        <v>4.942339373970346E-05</v>
       </c>
       <c r="W24">
-        <v>2.122900232457575E-06</v>
+        <v>2.292719088414891E-06</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -86790,70 +86790,70 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>4.65</v>
+        <v>0.01</v>
       </c>
       <c r="D25">
-        <v>0.5170271555555556</v>
+        <v>0.002332725</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="H25" t="s">
         <v>654</v>
       </c>
       <c r="I25">
-        <v>6392.517</v>
+        <v>2388.149</v>
       </c>
       <c r="J25">
-        <v>8435.87247</v>
+        <v>2864.472</v>
       </c>
       <c r="K25">
-        <v>9773.24747</v>
+        <v>4076.825</v>
       </c>
       <c r="L25">
-        <v>0.0007274130049243515</v>
+        <v>4.187343419527007E-06</v>
       </c>
       <c r="M25">
-        <v>0.0005512174367899139</v>
+        <v>3.491044771950991E-06</v>
       </c>
       <c r="N25">
-        <v>0.0004757886275031568</v>
+        <v>2.452889196862755E-06</v>
       </c>
       <c r="O25" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="P25">
-        <v>30.19</v>
+        <v>33.259</v>
       </c>
       <c r="Q25">
-        <v>186263</v>
+        <v>44621</v>
       </c>
       <c r="R25">
-        <v>5781</v>
+        <v>1894</v>
       </c>
       <c r="S25">
-        <v>5781</v>
+        <v>1894</v>
       </c>
       <c r="T25">
-        <v>5266</v>
+        <v>1775</v>
       </c>
       <c r="U25">
-        <v>515</v>
+        <v>119</v>
       </c>
       <c r="V25">
-        <v>0.0008043591074208615</v>
+        <v>5.279831045406547E-06</v>
       </c>
       <c r="W25">
-        <v>2.496470045043836E-05</v>
+        <v>2.241097241209296E-07</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -86935,37 +86935,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>32.78</v>
+        <v>56.45</v>
       </c>
       <c r="D2">
-        <v>0.7284261888888889</v>
+        <v>2.2578063236</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>656</v>
       </c>
       <c r="G2">
-        <v>2973.154</v>
+        <v>43018.98</v>
       </c>
       <c r="H2">
-        <v>3164.032</v>
+        <v>45952.433</v>
       </c>
       <c r="I2">
-        <v>4296.023</v>
+        <v>57110.278</v>
       </c>
       <c r="J2">
-        <v>0.01102532865771501</v>
+        <v>0.001312211493624442</v>
       </c>
       <c r="K2">
-        <v>0.01036019863263077</v>
+        <v>0.001228444204466823</v>
       </c>
       <c r="L2">
-        <v>0.007630312966201531</v>
+        <v>0.0009884385434089464</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -86973,19 +86973,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C3">
-        <v>33.98</v>
+        <v>46.41</v>
       </c>
       <c r="D3">
-        <v>0.3998087749411764</v>
+        <v>0.8593847111111111</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>657</v>
+      </c>
+      <c r="G3">
+        <v>7168.665</v>
+      </c>
+      <c r="H3">
+        <v>7927.689</v>
+      </c>
+      <c r="I3">
+        <v>11567.744</v>
+      </c>
+      <c r="J3">
+        <v>0.006474008758953026</v>
+      </c>
+      <c r="K3">
+        <v>0.00585416506626332</v>
+      </c>
+      <c r="L3">
+        <v>0.004012018246600201</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -86993,37 +87011,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>43.21</v>
       </c>
       <c r="D4">
-        <v>0.0988906</v>
+        <v>1.3502295625</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>658</v>
       </c>
       <c r="G4">
-        <v>7824.217</v>
+        <v>5604.728</v>
       </c>
       <c r="H4">
-        <v>9098.768</v>
+        <v>6550.265</v>
       </c>
       <c r="I4">
-        <v>17748.459</v>
+        <v>10891.457</v>
       </c>
       <c r="J4">
-        <v>1.278083161548306E-05</v>
+        <v>0.007709562355211528</v>
       </c>
       <c r="K4">
-        <v>1.099049893348198E-05</v>
+        <v>0.006596679676318439</v>
       </c>
       <c r="L4">
-        <v>5.63429196867176E-06</v>
+        <v>0.003967329623575615</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -87031,37 +87049,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>13.05</v>
+        <v>41.35</v>
       </c>
       <c r="D5">
-        <v>0.6523174999999999</v>
+        <v>0.8988532349999999</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>659</v>
       </c>
       <c r="G5">
-        <v>8075.606</v>
+        <v>6109.773</v>
       </c>
       <c r="H5">
-        <v>8676.52</v>
+        <v>7286.767</v>
       </c>
       <c r="I5">
-        <v>10952.73</v>
+        <v>23181.191</v>
       </c>
       <c r="J5">
-        <v>0.001615977797827185</v>
+        <v>0.006767845548435269</v>
       </c>
       <c r="K5">
-        <v>0.001504059231120311</v>
+        <v>0.005674670261859615</v>
       </c>
       <c r="L5">
-        <v>0.001191483767060815</v>
+        <v>0.001783773750020006</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -87069,37 +87087,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6">
-        <v>1.76</v>
+        <v>40.34</v>
       </c>
       <c r="D6">
-        <v>1.760832</v>
+        <v>0.4532882106741573</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>660</v>
       </c>
       <c r="G6">
-        <v>23522.892</v>
+        <v>4416.019</v>
       </c>
       <c r="H6">
-        <v>26792.783</v>
+        <v>5389.959</v>
       </c>
       <c r="I6">
-        <v>53553.227</v>
+        <v>11423.939</v>
       </c>
       <c r="J6">
-        <v>7.482073207665112E-05</v>
+        <v>0.009134924464772457</v>
       </c>
       <c r="K6">
-        <v>6.568933133971189E-05</v>
+        <v>0.007484286986227539</v>
       </c>
       <c r="L6">
-        <v>3.286449946330966E-05</v>
+        <v>0.00353118132020838</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -87107,37 +87125,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7">
-        <v>1.59</v>
+        <v>33.98</v>
       </c>
       <c r="D7">
-        <v>1.58808</v>
+        <v>0.3998087749411764</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
         <v>661</v>
-      </c>
-      <c r="G7">
-        <v>2636.343</v>
-      </c>
-      <c r="H7">
-        <v>3967.292</v>
-      </c>
-      <c r="I7">
-        <v>9176.359</v>
-      </c>
-      <c r="J7">
-        <v>0.0006031081691570483</v>
-      </c>
-      <c r="K7">
-        <v>0.0004007771547947568</v>
-      </c>
-      <c r="L7">
-        <v>0.0001732713377931269</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -87145,37 +87145,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8">
-        <v>4.27</v>
+        <v>32.78</v>
       </c>
       <c r="D8">
-        <v>0.8537993999999998</v>
+        <v>0.7284261888888889</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>662</v>
       </c>
       <c r="G8">
-        <v>6555.072</v>
+        <v>2973.154</v>
       </c>
       <c r="H8">
-        <v>7984.775</v>
+        <v>3164.032</v>
       </c>
       <c r="I8">
-        <v>12002.375</v>
+        <v>4296.023</v>
       </c>
       <c r="J8">
-        <v>0.0006514039815275865</v>
+        <v>0.01102532865771501</v>
       </c>
       <c r="K8">
-        <v>0.0005347677298358438</v>
+        <v>0.01036019863263077</v>
       </c>
       <c r="L8">
-        <v>0.000355762921921703</v>
+        <v>0.007630312966201531</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -87183,37 +87183,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9">
-        <v>9.09</v>
+        <v>13.05</v>
       </c>
       <c r="D9">
-        <v>0.5349113823529412</v>
+        <v>0.6523174999999999</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>663</v>
       </c>
       <c r="G9">
-        <v>11411.889</v>
+        <v>8075.606</v>
       </c>
       <c r="H9">
-        <v>12363.463</v>
+        <v>8676.52</v>
       </c>
       <c r="I9">
-        <v>15401.542</v>
+        <v>10952.73</v>
       </c>
       <c r="J9">
-        <v>0.0007965377160608555</v>
+        <v>0.001615977797827185</v>
       </c>
       <c r="K9">
-        <v>0.0007352308976861904</v>
+        <v>0.001504059231120311</v>
       </c>
       <c r="L9">
-        <v>0.0005902006435459515</v>
+        <v>0.001191483767060815</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -87221,37 +87221,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>9.09</v>
       </c>
       <c r="D10">
-        <v>0.250875</v>
+        <v>0.5349113823529412</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>664</v>
       </c>
       <c r="G10">
-        <v>99582.43399999999</v>
+        <v>11411.889</v>
       </c>
       <c r="H10">
-        <v>115019.768</v>
+        <v>12363.463</v>
       </c>
       <c r="I10">
-        <v>197177.278</v>
+        <v>15401.542</v>
       </c>
       <c r="J10">
-        <v>5.020965846245534E-06</v>
+        <v>0.0007965377160608555</v>
       </c>
       <c r="K10">
-        <v>4.347078843003752E-06</v>
+        <v>0.0007352308976861904</v>
       </c>
       <c r="L10">
-        <v>2.535789138949367E-06</v>
+        <v>0.0005902006435459515</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -87259,37 +87259,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11">
-        <v>46.41</v>
+        <v>4.27</v>
       </c>
       <c r="D11">
-        <v>0.8593847111111111</v>
+        <v>0.8537993999999998</v>
       </c>
       <c r="E11">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>665</v>
       </c>
       <c r="G11">
-        <v>7168.665</v>
+        <v>6555.072</v>
       </c>
       <c r="H11">
-        <v>7927.689</v>
+        <v>7984.775</v>
       </c>
       <c r="I11">
-        <v>11567.744</v>
+        <v>12002.375</v>
       </c>
       <c r="J11">
-        <v>0.006474008758953026</v>
+        <v>0.0006514039815275865</v>
       </c>
       <c r="K11">
-        <v>0.00585416506626332</v>
+        <v>0.0005347677298358438</v>
       </c>
       <c r="L11">
-        <v>0.004012018246600201</v>
+        <v>0.000355762921921703</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -87297,37 +87297,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C12">
-        <v>56.45</v>
+        <v>2.78</v>
       </c>
       <c r="D12">
-        <v>2.2578063236</v>
+        <v>0.27791875</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>666</v>
       </c>
       <c r="G12">
-        <v>43018.98</v>
+        <v>20298.051</v>
       </c>
       <c r="H12">
-        <v>45952.433</v>
+        <v>22140.787</v>
       </c>
       <c r="I12">
-        <v>57110.278</v>
+        <v>34405.159</v>
       </c>
       <c r="J12">
-        <v>0.001312211493624442</v>
+        <v>0.000136958962217604</v>
       </c>
       <c r="K12">
-        <v>0.001228444204466823</v>
+        <v>0.0001255601257534341</v>
       </c>
       <c r="L12">
-        <v>0.0009884385434089464</v>
+        <v>8.080183556192836E-05</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -87335,37 +87335,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>43.21</v>
+        <v>1.76</v>
       </c>
       <c r="D13">
-        <v>1.3502295625</v>
+        <v>1.760832</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>667</v>
       </c>
       <c r="G13">
-        <v>5604.728</v>
+        <v>23522.892</v>
       </c>
       <c r="H13">
-        <v>6550.265</v>
+        <v>26792.783</v>
       </c>
       <c r="I13">
-        <v>10891.457</v>
+        <v>53553.227</v>
       </c>
       <c r="J13">
-        <v>0.007709562355211528</v>
+        <v>7.482073207665112E-05</v>
       </c>
       <c r="K13">
-        <v>0.006596679676318439</v>
+        <v>6.568933133971189E-05</v>
       </c>
       <c r="L13">
-        <v>0.003967329623575615</v>
+        <v>3.286449946330966E-05</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -87373,13 +87373,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>0.64</v>
+        <v>1.74</v>
       </c>
       <c r="D14">
-        <v>0.64354773</v>
+        <v>1.73956</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -87388,22 +87388,22 @@
         <v>668</v>
       </c>
       <c r="G14">
-        <v>5135.733</v>
+        <v>10185.226</v>
       </c>
       <c r="H14">
-        <v>8072.519</v>
+        <v>10702.66</v>
       </c>
       <c r="I14">
-        <v>28196.658</v>
+        <v>12688.999</v>
       </c>
       <c r="J14">
-        <v>0.0001246170702409958</v>
+        <v>0.0001708356790512061</v>
       </c>
       <c r="K14">
-        <v>7.928132470174428E-05</v>
+        <v>0.0001625764062391966</v>
       </c>
       <c r="L14">
-        <v>2.269772538291595E-05</v>
+        <v>0.0001371266559324341</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -87411,37 +87411,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>40.34</v>
+        <v>1.59</v>
       </c>
       <c r="D15">
-        <v>0.4532882106741573</v>
+        <v>1.58808</v>
       </c>
       <c r="E15">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>669</v>
       </c>
       <c r="G15">
-        <v>4416.019</v>
+        <v>2636.343</v>
       </c>
       <c r="H15">
-        <v>5389.959</v>
+        <v>3967.292</v>
       </c>
       <c r="I15">
-        <v>11423.939</v>
+        <v>9176.359</v>
       </c>
       <c r="J15">
-        <v>0.009134924464772457</v>
+        <v>0.0006031081691570483</v>
       </c>
       <c r="K15">
-        <v>0.007484286986227539</v>
+        <v>0.0004007771547947568</v>
       </c>
       <c r="L15">
-        <v>0.00353118132020838</v>
+        <v>0.0001732713377931269</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -87487,37 +87487,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C17">
-        <v>2.78</v>
+        <v>0.64</v>
       </c>
       <c r="D17">
-        <v>0.27791875</v>
+        <v>0.64354773</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>671</v>
       </c>
       <c r="G17">
-        <v>20298.051</v>
+        <v>5135.733</v>
       </c>
       <c r="H17">
-        <v>22140.787</v>
+        <v>8072.519</v>
       </c>
       <c r="I17">
-        <v>34405.159</v>
+        <v>28196.658</v>
       </c>
       <c r="J17">
-        <v>0.000136958962217604</v>
+        <v>0.0001246170702409958</v>
       </c>
       <c r="K17">
-        <v>0.0001255601257534341</v>
+        <v>7.928132470174428E-05</v>
       </c>
       <c r="L17">
-        <v>8.080183556192836E-05</v>
+        <v>2.269772538291595E-05</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -87525,37 +87525,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C18">
-        <v>41.35</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
-        <v>0.8988532349999999</v>
+        <v>0.250875</v>
       </c>
       <c r="E18">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>672</v>
       </c>
       <c r="G18">
-        <v>6109.773</v>
+        <v>99582.43399999999</v>
       </c>
       <c r="H18">
-        <v>7286.767</v>
+        <v>115019.768</v>
       </c>
       <c r="I18">
-        <v>23181.191</v>
+        <v>197177.278</v>
       </c>
       <c r="J18">
-        <v>0.006767845548435269</v>
+        <v>5.020965846245534E-06</v>
       </c>
       <c r="K18">
-        <v>0.005674670261859615</v>
+        <v>4.347078843003752E-06</v>
       </c>
       <c r="L18">
-        <v>0.001783773750020006</v>
+        <v>2.535789138949367E-06</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -87563,13 +87563,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19">
-        <v>1.74</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
-        <v>1.73956</v>
+        <v>0.0988906</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -87578,22 +87578,22 @@
         <v>673</v>
       </c>
       <c r="G19">
-        <v>10185.226</v>
+        <v>7824.217</v>
       </c>
       <c r="H19">
-        <v>10702.66</v>
+        <v>9098.768</v>
       </c>
       <c r="I19">
-        <v>12688.999</v>
+        <v>17748.459</v>
       </c>
       <c r="J19">
-        <v>0.0001708356790512061</v>
+        <v>1.278083161548306E-05</v>
       </c>
       <c r="K19">
-        <v>0.0001625764062391966</v>
+        <v>1.099049893348198E-05</v>
       </c>
       <c r="L19">
-        <v>0.0001371266559324341</v>
+        <v>5.63429196867176E-06</v>
       </c>
     </row>
     <row r="20" spans="1:12">
